--- a/data/Live Code/Testing Current Acc Size/AUDCAD result.xlsx
+++ b/data/Live Code/Testing Current Acc Size/AUDCAD result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\data\Live Code\Testing Current Acc Size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880EAF8-FE6E-41DC-BEB1-980DE6D320E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B4061-EC32-4F58-AEFD-D87394B9DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
